--- a/Realisering/Impedans og induktans/Kondensator_impedans.xlsx
+++ b/Realisering/Impedans og induktans/Kondensator_impedans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9008" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9008" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
@@ -213,15 +213,15 @@
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,15 +353,15 @@
 </file>
 
 <file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,6 +425,5397 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Kapacitet og impedans for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> udgangskondensator</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32958253228474915"/>
+          <c:y val="4.219951481176154E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.793893129770992E-2"/>
+          <c:y val="0.14322250639386189"/>
+          <c:w val="0.85954198473282439"/>
+          <c:h val="0.71355498721227617"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Kapacitet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$402</c:f>
+              <c:numCache>
+                <c:formatCode>#,#00E+00</c:formatCode>
+                <c:ptCount val="401"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>147.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>167.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>178.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>184.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>190.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>196.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>203.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>209.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>216.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>223.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>231.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>238.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>246.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>254.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>263.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>280.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>289.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>299.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>309.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>319.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>329.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>340.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>351.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>363.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>375.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>387.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>400.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>413.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>426.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>440.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>455.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>470.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>485.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>501.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>517.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>534.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>552.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>570.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>589.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>608.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>628.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>670.3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>692.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>738.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>762.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>787.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>813.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>840.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>867.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>925.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>955.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>987.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1019.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1052.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1087.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1159.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1197.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1237</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1277.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1319.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1362.7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1407.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1453.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1501.1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1550.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1601.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1653.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1707.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1763.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1821.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1881.3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2006.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2072.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2140.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2210.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2282.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2357.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2435</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2514.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2597.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2682.4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2770.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2861.1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2954.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3051.7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3151.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3255</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3361.7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3471.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3585.6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3703.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3824.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3949.9</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4079.3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4213</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4351.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4493.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4793.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4950.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5112.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5279.9</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5453</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5631.7</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5816.3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6006.9</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6203.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6407.1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6617.1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6833.9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7057.9</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7289.2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7528.1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7774.9</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8029.7</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8292.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8564.6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8845.2999999999993</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9135.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9434.6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9743.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>10063.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>10393</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>10733.6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11085.4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>11448.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11823.9</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>12211.4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>12611.6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>13024.9</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>13451.8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>13892.7</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>14348</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>14818.2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15303.9</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15805.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>16323.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16858.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>17411</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>17981.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>18570.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>19179.5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>19808.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>20457.3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>21127.8</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>21820.2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>22535.3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>23273.9</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>24036.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>24824.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>25638</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>26478.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>27346.1</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>28242.3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>29167.9</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>30123.9</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>31111.1</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>32130.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>33183.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>34271.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>35394.6</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>36554.6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>37752.6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>38989.9</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>40267.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>41587.5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42950.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44358.1</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>45811.9</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>47313.3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>48863.9</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>50465.4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>52119.3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>53827.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>55591.6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>57413.5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>59295.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>61238.5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>63245.5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>65318.3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>67459</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>69669.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>71953.2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>74311.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>76746.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>79262.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>81859.8</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>84542.7</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>87313.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>90175.1</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>93130.4</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>96182.6</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>99334.9</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>102590.5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>105952.7</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>109425.2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>113011.5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>116715.3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>120540.5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>124491</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>128571</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>132784.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>137136.6</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>141631.1</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>146272.9</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>151066.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>156017.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>161131</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>166411.9</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>171865.8</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>177498.5</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>183315.8</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>189323.7</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>195528.5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>201936.7</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>208554.9</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>215390</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>222449.1</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>229739.6</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>237269</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>245045.2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>253076.2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>261370.5</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>269936.5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>278783.3</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>287920.09999999998</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>297356.3</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>307101.7</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>317166.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>327561.3</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>338296.7</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>349383.9</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>360834.5</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>372660.3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>384873.8</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>397487.5</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>410514.6</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>423968.7</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>437863.7</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>452214.1</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>467034.8</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>482341.2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>498149.3</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>514475.5</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>531336.69999999995</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>548750.6</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>566735.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>585309.1</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>604491.9</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>624303.30000000005</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>644764</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>665895.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>687719.1</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>710258.1</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>733535.9</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>757576.5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>782405.1</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>808047.4</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>834530</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>861880.6</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>890127.6</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>919300.3</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>949429.2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>980545.4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1012681.5</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1045870.8</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1080147.8</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1115548.2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1152108.8</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1189867.6000000001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1228863.8999999999</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1269138.2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1310732.5</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1353690</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1398055.4</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1443874.8</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1491195.8</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1540067.8</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1590541.4</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1642669.3</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1696505.5</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1752106.2</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1809529.1</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1868834</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1930082.5</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1993338.4</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2058667.4</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2126137.4</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2195818.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2267783.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2342107.2999999998</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2418866.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2498141.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2580015</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2664571.5</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2751899.3</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2842089.1</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2935234.7</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3031433.1</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3130784.2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3233391.5</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>3339361.5</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3448804.6</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>3561834.5</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3678568.8</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>3799129</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3923640.3</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>4052232.3</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>4185038.8</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>4322197.8</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>4463852</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>4610148.7</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>4761240.2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>4917283.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>5078440.7</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5244879.8</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>5416773.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5594301.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>5777646.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>5967001.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>6162561.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>6364531.5</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>6573120.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>6788545.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>7011031</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>7240808.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>7478115.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>7723201</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>7976318.5</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>8237731.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>8507712.1999999993</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>8786541</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>9074508</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>9371912.8000000007</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>9679064.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>9996282.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>10323897.6</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>10662249.5</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>11011690.300000001</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>11372583.699999999</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>11745304.800000001</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>12130241.300000001</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>12527793.6</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>12938375.199999999</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>13362413</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>13800348.1</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>14252635.9</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>14719746.800000001</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>15202166.699999999</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>15700397.199999999</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>16214956.6</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>16746380</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>17295220</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>17862047.5</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>18447452.100000001</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>19052042.5</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>19676447.5</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>20321316.5</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>20987320.300000001</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>21675151.5</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>22385525.300000001</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>23119180.800000001</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>23876880.800000001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>24659413.399999999</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>25467592.399999999</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>26302258.399999999</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>27164279.5</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>28054552.199999999</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>28974002.300000001</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>29923586.199999999</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>30904291.399999999</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>31917138</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>32963179.199999999</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>34043502.899999999</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>35159232.899999999</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>36311529.399999999</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>37501590.799999997</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>38730654.899999999</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>40000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$C$1:$C$402</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="402"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.33058E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3300000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3286799999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3282100000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3276999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3272600000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3267199999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3254999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3255499999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3253900000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.32436E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3233599999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3232500000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3224899999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3226799999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3222900000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3214400000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3216400000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3202299999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3204000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3205699999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.3205799999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.3196699999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3202199999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.3195600000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3194800000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.3195000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3179700000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3187199999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3181099999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3180300000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3170900000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3170400000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.3174699999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.3170200000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.31541E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.3166099999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3159599999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.3157600000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.3161400000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.3152000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.3162999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.3145E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.3151800000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.31448E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.3145700000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.3159299999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.3139100000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.31417E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.3150299999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.3137000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.3137999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3135199999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3137000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.3129800000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.3123800000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3122199999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.312E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.3115899999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3103000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.31107E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.3109200000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.3091999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.31046E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.3100000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.3096300000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.3093100000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.3081799999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.3096200000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.30768E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.3077400000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.3065700000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.3051899999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.3064800000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.3053799999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.30583E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.3059200000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.3057399999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.3051499999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.3047500000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.3059000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.30427E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.3037400000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.3027800000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.3036399999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.3028500000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.3014499999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.3028100000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.3013500000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.2998699999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.3021800000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.30028E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.3004899999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.2997500000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.30029E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.3013699999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.2984600000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.2992899999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.3034500000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.2976599999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.2994900000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.2983199999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.2988300000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.30183E-5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.2979500000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.2998999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.2947E-5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.2979500000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.29905E-5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.2992299999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.2989299999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.2982100000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.3013899999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.2963500000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.29844E-5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.2982200000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.3026399999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.3013999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.29934E-5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.2964699999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.3041000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.3016600000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.3034600000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.3063299999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.3017399999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.30678E-5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.3072799999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.3052E-5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.3065800000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.3124400000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.3117E-5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.31327E-5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.3119499999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.3189600000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5.30953E-5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.3159899999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.3130999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.3134399999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.3205799999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.3208899999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.31913E-5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.3276999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.3253300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.32471E-5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.3289599999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.3372699999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5.3340100000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.3419699999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.3411000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5.35559E-5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5.3439200000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5.3587100000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5.3659899999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5.37381E-5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5.3740599999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5.3842899999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5.3846900000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5.40008E-5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5.41184E-5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.4055399999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5.4241199999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.4196000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5.4288900000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5.45076E-5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5.4649199999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5.4735599999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5.5046500000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5.4935700000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5.5184900000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.5331100000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.5602100000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5.56946E-5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5.6024499999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.6226300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.6505400000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5.67979E-5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.69337E-5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.7071199999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.7282299999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.8116399999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5.8261299999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5.8699200000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.9021899999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.9639299999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.0124499999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.06452E-5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.1053299999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.1894099999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.2801100000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.34359E-5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.4558600000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.5380899999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.6309800000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.7451499999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.8219400000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6.9751899999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7.2068200000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>7.3749899999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>7.5182899999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>7.7129299999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>7.9679700000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>8.2576200000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>8.5696600000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>9.0837599999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>9.4320299999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.0035999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.04211E-4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.13255E-4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.19503E-4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.32034E-4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.4854899999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.7144799999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.0403700000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.4760599999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.02095E-4</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4.7603400000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.0779400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-9.1160300000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-5.7974000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-3.6251499999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-2.3185299999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-1.6717500000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-1.3573E-4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-1.07614E-4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-8.9724900000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-7.7656899999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-6.5522099999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-5.8078300000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-5.0795399999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-4.5933799999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-4.0465400000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-3.6226700000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-3.2595699999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-2.9575400000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-2.6526E-5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-2.4221000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-2.19985E-5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-2.0334900000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-1.8794500000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-1.71189E-5</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-1.5767999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-1.45424E-5</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-1.33906E-5</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-1.2389699999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-1.13949E-5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-1.06658E-5</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-9.7983200000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-9.1190700000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-8.4970100000000008E-6</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-7.9259899999999993E-6</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-7.3579499999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-6.82327E-6</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-6.3783999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-5.9170999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-5.5171699999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-5.1493799999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-4.81308E-6</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-4.4720300000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-4.1898199999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-3.9187399999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-3.65309E-6</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-3.4211799999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-3.2000899999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-2.9878200000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-2.8003999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-2.6145799999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-2.4444799999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-2.2833900000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-2.1403500000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-2.00232E-6</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-1.8773100000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-1.7579299999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-1.65166E-6</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-1.5442800000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-1.44442E-6</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-1.3540699999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-1.2682800000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-1.18753E-6</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-1.11221E-6</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-1.0436700000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-9.7804499999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-9.1734999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-8.6151100000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-8.0730399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-7.5789999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-7.1036700000000005E-7</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-6.6580499999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-6.2589899999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-5.8687499999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-5.5158199999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-5.1712900000000005E-7</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-4.8581099999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-4.5607799999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-4.2749599999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-4.01506E-7</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-3.7711099999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-3.5395400000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-3.3223299999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-3.1166999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-2.9287400000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-2.74846E-7</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-2.58155E-7</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-2.42187E-7</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-2.2728999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-2.1329800000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-2.0022500000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-1.87686E-7</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-1.7623899999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-1.65462E-7</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-1.5522899999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-1.4560500000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-1.36584E-7</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-1.28201E-7</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-1.2025499999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-1.12865E-7</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-1.0592E-7</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-9.9343900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-9.3200000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-8.7484799999999995E-8</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-8.2038699999999995E-8</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-7.6993400000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-7.2200699999999996E-8</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-6.7772200000000004E-8</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-6.3579200000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-5.9620600000000006E-8</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-5.5937699999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-5.2463200000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-4.9219300000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-4.6175399999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-4.3314699999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-4.0624400000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-3.8106600000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-3.57499E-8</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-3.3527699999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-3.1453200000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-2.9505600000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-2.7669499999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-2.5950399999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-2.4339800000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-2.2828500000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-2.1408299999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-2.0082000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-1.88369E-8</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-1.76617E-8</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-1.6561199999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-1.5528300000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-1.45634E-8</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-1.3657699999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-1.28028E-8</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-1.2004300000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-1.12574E-8</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-1.0554E-8</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-9.8948400000000005E-9</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-9.2761799999999993E-9</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-8.6957400000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-8.1505899999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-7.6405299999999995E-9</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-7.1610000000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-6.7128999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-6.2914899999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-5.8955099999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-5.52458E-9</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-5.1769100000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-4.8501E-9</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-4.5444600000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-4.2575800000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-3.9882899999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-3.7355699999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-3.4986299999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-3.2764200000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-3.0678899999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-2.8723199999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-2.68884E-9</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-2.51627E-9</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-2.3546899999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-2.20293E-9</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-2.0604900000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-1.9267399999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-1.8010700000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-1.6830500000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-1.5723099999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-1.4684100000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-1.37077E-9</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-1.27916E-9</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-1.1932899999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-1.1127200000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-1.0371000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-9.6640500000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-9.0005000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-8.37723E-10</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-7.7916499999999997E-10</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-7.24291E-10</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-6.7279499999999995E-10</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-6.2437500000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-5.7887400000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-5.3623100000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-4.9602300000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-4.5821799999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-4.2287100000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-3.8948300000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-3.5805799999999999E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8416-4F4A-93D0-B49F1ECD9A32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="119272960"/>
+        <c:axId val="119274880"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Impedans</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$402</c:f>
+              <c:numCache>
+                <c:formatCode>#,#00E+00</c:formatCode>
+                <c:ptCount val="401"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>147.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>167.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>178.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>184.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>190.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>196.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>203.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>209.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>216.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>223.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>231.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>238.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>246.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>254.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>263.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>280.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>289.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>299.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>309.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>319.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>329.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>340.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>351.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>363.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>375.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>387.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>400.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>413.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>426.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>440.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>455.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>470.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>485.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>501.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>517.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>534.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>552.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>570.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>589.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>608.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>628.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>670.3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>692.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>738.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>762.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>787.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>813.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>840.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>867.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>925.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>955.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>987.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1019.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1052.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1087.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1159.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1197.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1237</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1277.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1319.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1362.7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1407.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1453.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1501.1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1550.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1601.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1653.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1707.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1763.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1821.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1881.3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2006.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2072.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2140.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2210.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2282.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2357.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2435</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2514.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2597.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2682.4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2770.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2861.1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2954.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3051.7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3151.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3255</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3361.7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3471.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3585.6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3703.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3824.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3949.9</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4079.3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4213</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4351.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4493.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4793.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4950.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5112.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5279.9</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5453</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5631.7</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5816.3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6006.9</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6203.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6407.1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6617.1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6833.9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7057.9</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7289.2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7528.1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7774.9</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8029.7</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8292.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8564.6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8845.2999999999993</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9135.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9434.6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9743.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>10063.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>10393</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>10733.6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11085.4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>11448.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11823.9</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>12211.4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>12611.6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>13024.9</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>13451.8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>13892.7</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>14348</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>14818.2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15303.9</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15805.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>16323.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16858.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>17411</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>17981.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>18570.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>19179.5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>19808.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>20457.3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>21127.8</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>21820.2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>22535.3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>23273.9</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>24036.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>24824.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>25638</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>26478.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>27346.1</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>28242.3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>29167.9</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>30123.9</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>31111.1</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>32130.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>33183.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>34271.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>35394.6</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>36554.6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>37752.6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>38989.9</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>40267.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>41587.5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42950.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44358.1</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>45811.9</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>47313.3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>48863.9</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>50465.4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>52119.3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>53827.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>55591.6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>57413.5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>59295.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>61238.5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>63245.5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>65318.3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>67459</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>69669.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>71953.2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>74311.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>76746.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>79262.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>81859.8</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>84542.7</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>87313.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>90175.1</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>93130.4</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>96182.6</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>99334.9</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>102590.5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>105952.7</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>109425.2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>113011.5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>116715.3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>120540.5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>124491</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>128571</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>132784.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>137136.6</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>141631.1</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>146272.9</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>151066.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>156017.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>161131</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>166411.9</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>171865.8</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>177498.5</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>183315.8</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>189323.7</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>195528.5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>201936.7</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>208554.9</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>215390</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>222449.1</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>229739.6</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>237269</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>245045.2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>253076.2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>261370.5</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>269936.5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>278783.3</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>287920.09999999998</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>297356.3</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>307101.7</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>317166.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>327561.3</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>338296.7</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>349383.9</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>360834.5</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>372660.3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>384873.8</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>397487.5</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>410514.6</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>423968.7</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>437863.7</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>452214.1</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>467034.8</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>482341.2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>498149.3</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>514475.5</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>531336.69999999995</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>548750.6</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>566735.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>585309.1</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>604491.9</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>624303.30000000005</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>644764</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>665895.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>687719.1</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>710258.1</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>733535.9</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>757576.5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>782405.1</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>808047.4</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>834530</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>861880.6</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>890127.6</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>919300.3</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>949429.2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>980545.4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1012681.5</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1045870.8</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1080147.8</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1115548.2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1152108.8</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1189867.6000000001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1228863.8999999999</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1269138.2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1310732.5</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1353690</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1398055.4</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1443874.8</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1491195.8</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1540067.8</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1590541.4</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1642669.3</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1696505.5</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1752106.2</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1809529.1</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1868834</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1930082.5</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1993338.4</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2058667.4</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2126137.4</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2195818.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2267783.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2342107.2999999998</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2418866.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2498141.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2580015</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2664571.5</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2751899.3</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2842089.1</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2935234.7</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3031433.1</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3130784.2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3233391.5</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>3339361.5</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3448804.6</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>3561834.5</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3678568.8</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>3799129</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3923640.3</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>4052232.3</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>4185038.8</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>4322197.8</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>4463852</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>4610148.7</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>4761240.2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>4917283.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>5078440.7</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5244879.8</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>5416773.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5594301.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>5777646.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>5967001.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>6162561.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>6364531.5</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>6573120.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>6788545.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>7011031</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>7240808.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>7478115.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>7723201</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>7976318.5</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>8237731.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>8507712.1999999993</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>8786541</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>9074508</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>9371912.8000000007</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>9679064.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>9996282.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>10323897.6</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>10662249.5</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>11011690.300000001</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>11372583.699999999</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>11745304.800000001</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>12130241.300000001</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>12527793.6</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>12938375.199999999</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>13362413</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>13800348.1</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>14252635.9</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>14719746.800000001</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>15202166.699999999</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>15700397.199999999</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>16214956.6</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>16746380</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>17295220</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>17862047.5</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>18447452.100000001</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>19052042.5</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>19676447.5</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>20321316.5</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>20987320.300000001</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>21675151.5</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>22385525.300000001</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>23119180.800000001</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>23876880.800000001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>24659413.399999999</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>25467592.399999999</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>26302258.399999999</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>27164279.5</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>28054552.199999999</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>28974002.300000001</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>29923586.199999999</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>30904291.399999999</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>31917138</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>32963179.199999999</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>34043502.899999999</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>35159232.899999999</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>36311529.399999999</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>37501590.799999997</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>38730654.899999999</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>40000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$1:$B$402</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="402"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.121627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10981399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.105632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6450400000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3160699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4219100000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3413299999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7954599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0881E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5894599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2764200000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8136899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.34397E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0821199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6666300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2454199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8994800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5656599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3512899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.11302E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9497200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7446999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.57989E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4581200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15639E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.16603E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0653100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9251899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5484299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7802200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7109800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6430500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7264600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7565399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8375900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8873500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6636499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6270900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5355499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7132000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.46223E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.61233E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5010900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.63156E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4544899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.43217E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6016499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.56093E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5854E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.6166400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.50043E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4481600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.36834E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5537E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.6154499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5158E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5975199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.41326E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.50732E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.44473E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4975499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.45354E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.46737E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4447400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3872600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.43555E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4396600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.43845E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4296700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.40769E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.37425E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.40045E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.35604E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.3155E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.42439E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.35969E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3513300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3664600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2745100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.26753E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2173E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2381E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.25167E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.21853E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.2778899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1641500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.18995E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.21817E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1843100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.18929E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1146E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1469999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.13221E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1547999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0595800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.14766E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.08377E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.12709E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.1455399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.05396E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.03725E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1443999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.0261599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.02592E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.022E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.042E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.00982E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.9916599999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.8791699999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.0105199999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.6443799999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.3835600000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.6791900000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.8113599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.3525499999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.8346100000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.5670800000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.4192400000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.1552300000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.3881999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.0982100000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.2257399999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.4038200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.3726599999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.0409199999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.82127E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.4091599999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9.4632599999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9.6064500000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.3443199999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.1575700000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9.2837900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.8595099999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.1039099999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9.3136799999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9.38838E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.4131700000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9.5501400000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>9.2615700000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9.0874100000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9.3058299999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9.2125599999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9.0899399999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8.9914999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9.2373899999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9.3064099999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9.1786999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9.1104800000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9.0674999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>8.9981799999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9.0848400000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9.1108200000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8.8139299999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8.7544200000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8.8958600000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8.5933499999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8.9112900000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8.9406999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8.7126700000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8.8819999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8.8962099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8.6414200000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8.9772399999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8.6516600000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8.6535899999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8.4530100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.6609800000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.6962600000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8.9317700000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8.5994399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8.5941100000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.4197100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.3146499999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8.7018700000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8.74372E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8.6136700000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8.3245200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8.8605400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.7852899999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9.0320899999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8.8093700000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>8.8667899999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>8.7401800000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>8.4760800000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.6418799999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>8.7259999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8.8911300000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>8.9843600000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9.0579700000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>8.9121500000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>8.8443600000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8.8040500000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>8.6160999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8.9273700000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9.3207099999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9.2291600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9.0308200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9.0396299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>8.9408300000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.3779999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>9.5224899999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>9.3420399999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>9.1748699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>9.4624700000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>9.4643100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>9.33201E-3</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>9.7080699999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>9.7932100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9.8572599999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>9.6504899999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9.4926400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>9.5341699999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>9.7949300000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>9.5715799999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>9.7569600000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.02325E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.0277100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.0368E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>9.8927800000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>9.9275200000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.0271000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.01464E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.02346E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.06245E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.05323E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.03286E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.02655E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.10209E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.1246600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.14246E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.09021E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.11261E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.13054E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.11492E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.10943E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.1388199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.1731999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.20708E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.19922E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.18443E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.1749000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.1895899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.19627E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.2143899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.2288E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.24519E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.2583799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.2548999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.30832E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.33355E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.3615199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.35786E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.3373700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.35459E-2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.37047E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.3832799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.39515E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.42939E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.4045E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.46216E-2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.45062E-2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.52528E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.5129E-2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.54346E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.55777E-2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.55453E-2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.6238099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.6131E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.65124E-2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.6716999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.7008700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.7223499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.74723E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.7728299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.8295499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.8346399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.8445099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.8981899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.9424799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2.0344600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2.0308300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2.0920999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2.1260600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2.2176100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2.25811E-2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2.3148999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.3286000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2.3708300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2.4493600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2.49482E-2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2.5351599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2.5652999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2.6317199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2.7343099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2.7552199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2.8080000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2.85089E-2</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2.8787900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2.9411099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2.9929500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3.0157900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3.07622E-2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3.1187400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3.15176E-2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3.1715599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>3.23354E-2</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3.29944E-2</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3.3190999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3.3757500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>3.42352E-2</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>3.4826500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3.5216900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3.5735500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3.6221400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3.6831599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3.7075999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3.7846999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3.8587900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>3.9231299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3.9834899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>4.0118099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>4.1198400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>4.1771500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>4.2339300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>4.3260100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>4.3566599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>4.4543699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>4.4813699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>4.5515E-2</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>4.6765500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>4.7313000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>4.8027599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>4.8991600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>4.9732400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>5.03691E-2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>5.1544E-2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5.2421700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>5.3275200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5.3967300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>5.5169799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>5.58658E-2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>5.6986099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>5.7943700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>5.9127699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>6.0074200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>6.1329099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>6.2208600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>6.3161700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>6.4657500000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>6.6453799999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>6.6880099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>6.8300100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>6.9451399999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>7.0856600000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>7.2202299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>7.3550599999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>7.5276999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>7.6896300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>7.8468099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>7.9877400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>8.1636700000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>8.3752599999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>8.5636799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>8.7136699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>8.8765999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>9.1335200000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>9.3376600000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>9.5519900000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>9.7565200000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>9.9896600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.102343</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.104949</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.10757899999999999</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.11036</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.113146</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.115963</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.119001</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.121868</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.125946</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.13014000000000001</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.13477600000000001</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.14116200000000001</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.14751900000000001</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.15504399999999999</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.16545299999999999</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.17588100000000001</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.188665</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.20105799999999999</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.21709200000000001</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.23343</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.25085200000000002</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.27071800000000001</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.29172799999999999</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.31503500000000001</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.34162100000000001</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.37343199999999999</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.407947</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.45075799999999999</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.50347399999999998</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.566245</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.64299700000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8416-4F4A-93D0-B49F1ECD9A32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="39667200"/>
+        <c:axId val="39668736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="119272960"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1875" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Frequency [Hz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42671755725190841"/>
+              <c:y val="0.92583120204603575"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119274880"/>
+        <c:crossesAt val="-1000"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="119274880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1875" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Kapacitans [F]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1450381679389313E-2"/>
+              <c:y val="0.42455242966751916"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119272960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="39667200"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,#00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39668736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="39668736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1875" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Impedans [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.95572519083969465"/>
+              <c:y val="0.38107416879795397"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39667200"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76793893129770996"/>
+          <c:y val="3.4526854219948847E-2"/>
+          <c:w val="0.16106870229007633"/>
+          <c:h val="8.6956521739130432E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1470" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1950" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="300"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -5551,7 +10942,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Gain [dB]</a:t>
+                  <a:t>Kapacitans [F]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5649,7 +11040,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>Phase [degree]</a:t>
+                  <a:t>Impedans [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6044,8 +11443,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6102,8 +11501,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6218,8 +11617,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6276,8 +11675,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6334,8 +11733,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6392,8 +11791,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6450,8 +11849,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6508,8 +11907,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6566,8 +11965,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6624,8 +12023,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6682,8 +12081,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6740,8 +12139,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6798,8 +12197,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6856,8 +12255,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6914,8 +12313,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6972,8 +12371,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7030,8 +12429,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7146,8 +12545,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7204,8 +12603,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7262,8 +12661,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7320,8 +12719,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7378,8 +12777,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7436,8 +12835,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7494,8 +12893,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7552,8 +12951,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7610,8 +13009,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7668,8 +13067,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7726,8 +13125,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7784,8 +13183,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7842,8 +13241,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7900,8 +13299,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7958,8 +13357,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
@@ -8016,8 +13415,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
@@ -8074,8 +13473,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8132,8 +13531,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8190,8 +13589,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8306,8 +13705,8 @@
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>2143125</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -8364,8 +13763,8 @@
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>2143125</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -8422,8 +13821,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8712,8 +14111,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8999,6 +14398,192 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>156944</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B314B9-0EC7-4D8F-AC12-E89A7876F314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7791</cdr:x>
+      <cdr:y>0.95758</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99619</cdr:x>
+      <cdr:y>0.97881</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5121" name="Text Box 1"/>
+        <cdr:cNvSpPr txBox="1">
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="9732070" y="7144882"/>
+          <a:ext cx="2710755" cy="158301"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Date: 17-12-2007 - Time: 09:33:58</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08246</cdr:x>
+      <cdr:y>0.94376</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37099</cdr:x>
+      <cdr:y>0.97881</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5122" name="Text Box 2"/>
+        <cdr:cNvSpPr txBox="1">
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1032868" y="7041802"/>
+          <a:ext cx="3602981" cy="261381"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Test</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -9038,7 +14623,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -9687,19 +15272,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1189" r:id="rId4" name="Maaletype_Imp">
+        <control shapeId="1276" r:id="rId4" name="AttenuationTest_2">
           <controlPr autoLine="0" autoPict="0" r:id="rId5">
             <anchor>
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>13</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
               </to>
             </anchor>
@@ -9707,24 +15292,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1189" r:id="rId4" name="Maaletype_Imp"/>
+        <control shapeId="1276" r:id="rId4" name="AttenuationTest_2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1190" r:id="rId6" name="Maaletype_Gph">
+        <control shapeId="1275" r:id="rId6" name="AttenuationTest_1">
           <controlPr autoLine="0" autoPict="0" r:id="rId7">
             <anchor>
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>13</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
               </to>
             </anchor>
@@ -9732,24 +15317,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1190" r:id="rId6" name="Maaletype_Gph"/>
+        <control shapeId="1275" r:id="rId6" name="AttenuationTest_1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1205" r:id="rId8" name="Impedans_1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="1274" r:id="rId8" name="AttenuationReference_2">
+          <controlPr autoLine="0" r:id="rId9">
             <anchor>
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>11</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
               </to>
             </anchor>
@@ -9757,24 +15342,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1205" r:id="rId8" name="Impedans_1"/>
+        <control shapeId="1274" r:id="rId8" name="AttenuationReference_2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1209" r:id="rId10" name="Impedans_2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+        <control shapeId="1273" r:id="rId10" name="AttenuationReference_1">
+          <controlPr autoLine="0" r:id="rId11">
             <anchor>
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>11</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
               </to>
             </anchor>
@@ -9782,22 +15367,247 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1209" r:id="rId10" name="Impedans_2"/>
+        <control shapeId="1273" r:id="rId10" name="AttenuationReference_1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1210" r:id="rId12" name="Impedans_3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="1272" r:id="rId12" name="Output_2">
+          <controlPr autoLine="0" r:id="rId13">
             <anchor>
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1272" r:id="rId12" name="Output_2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1271" r:id="rId14" name="ImpedanceTest_2">
+          <controlPr autoLine="0" autoPict="0" r:id="rId15">
+            <anchor>
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1038225</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1271" r:id="rId14" name="ImpedanceTest_2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1270" r:id="rId16" name="ImpedanceTest_1">
+          <controlPr autoLine="0" autoPict="0" r:id="rId17">
+            <anchor>
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1270" r:id="rId16" name="ImpedanceTest_1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1269" r:id="rId18" name="ImpedanceReference_2">
+          <controlPr autoLine="0" autoPict="0" r:id="rId19">
+            <anchor>
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1038225</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1269" r:id="rId18" name="ImpedanceReference_2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1268" r:id="rId20" name="ImpedanceReference_1">
+          <controlPr autoLine="0" autoPict="0" r:id="rId21">
+            <anchor>
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1268" r:id="rId20" name="ImpedanceReference_1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1265" r:id="rId22" name="Output_1">
+          <controlPr autoLine="0" r:id="rId23">
+            <anchor>
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1265" r:id="rId22" name="Output_1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1264" r:id="rId24" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
+            <anchor>
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>2143125</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1264" r:id="rId24" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1256" r:id="rId26" name="HentData">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+            <anchor>
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>2143125</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1256" r:id="rId26" name="HentData"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1255" r:id="rId28" name="ForetagMaaling">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId29">
+            <anchor>
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1255" r:id="rId28" name="ForetagMaaling"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1244" r:id="rId30" name="Averaging_4">
+          <controlPr autoLine="0" r:id="rId31">
+            <anchor>
+              <from>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
@@ -9807,22 +15617,197 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1210" r:id="rId12" name="Impedans_3"/>
+        <control shapeId="1244" r:id="rId30" name="Averaging_4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1211" r:id="rId14" name="Impedans_4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="1252" r:id="rId32" name="SweepType_Lin">
+          <controlPr autoLine="0" r:id="rId33">
             <anchor>
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1252" r:id="rId32" name="SweepType_Lin"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1251" r:id="rId34" name="SweepType_Log">
+          <controlPr autoLine="0" r:id="rId35">
+            <anchor>
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1251" r:id="rId34" name="SweepType_Log"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1250" r:id="rId36" name="Averaging_256">
+          <controlPr autoLine="0" r:id="rId37">
+            <anchor>
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>371475</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1250" r:id="rId36" name="Averaging_256"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1249" r:id="rId38" name="Averaging_128">
+          <controlPr autoLine="0" r:id="rId39">
+            <anchor>
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>371475</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1249" r:id="rId38" name="Averaging_128"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1248" r:id="rId40" name="Averaging_64">
+          <controlPr autoLine="0" r:id="rId41">
+            <anchor>
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1248" r:id="rId40" name="Averaging_64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1247" r:id="rId42" name="Averaging_32">
+          <controlPr autoLine="0" r:id="rId43">
+            <anchor>
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1247" r:id="rId42" name="Averaging_32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1246" r:id="rId44" name="Averaging_16">
+          <controlPr autoLine="0" r:id="rId45">
+            <anchor>
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1246" r:id="rId44" name="Averaging_16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1245" r:id="rId46" name="Averaging_8">
+          <controlPr autoLine="0" r:id="rId47">
+            <anchor>
+              <from>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
@@ -9832,447 +15817,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1211" r:id="rId14" name="Impedans_4"/>
+        <control shapeId="1245" r:id="rId46" name="Averaging_8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1212" r:id="rId16" name="Impedans_5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
+        <control shapeId="1243" r:id="rId48" name="Averaging_2">
+          <controlPr autoLine="0" r:id="rId49">
             <anchor>
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1212" r:id="rId16" name="Impedans_5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1213" r:id="rId18" name="Impedans_6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1213" r:id="rId18" name="Impedans_6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1214" r:id="rId20" name="Impedans_7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1214" r:id="rId20" name="Impedans_7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1215" r:id="rId22" name="Impedans_8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1215" r:id="rId22" name="Impedans_8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1216" r:id="rId24" name="Impedans_9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1216" r:id="rId24" name="Impedans_9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1217" r:id="rId26" name="Impedans_10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1217" r:id="rId26" name="Impedans_10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1218" r:id="rId28" name="Impedans_11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1218" r:id="rId28" name="Impedans_11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1219" r:id="rId30" name="Impedans_12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1219" r:id="rId30" name="Impedans_12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1220" r:id="rId32" name="Impedans_13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1220" r:id="rId32" name="Impedans_13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1221" r:id="rId34" name="Impedans_14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1221" r:id="rId34" name="Impedans_14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1222" r:id="rId36" name="Impedans_15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1222" r:id="rId36" name="Impedans_15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1223" r:id="rId38" name="Impedans_16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1223" r:id="rId38" name="Impedans_16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1224" r:id="rId40" name="Impedans_17">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1224" r:id="rId40" name="Impedans_17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1225" r:id="rId42" name="Impedans_18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1225" r:id="rId42" name="Impedans_18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1226" r:id="rId44" name="Impedans_19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1226" r:id="rId44" name="Impedans_19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1227" r:id="rId46" name="Impedans_20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId47">
-            <anchor>
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1227" r:id="rId46" name="Impedans_20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1228" r:id="rId48" name="Gainphase_1">
-          <controlPr autoLine="0" autoPict="0" r:id="rId49">
-            <anchor>
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1228" r:id="rId48" name="Gainphase_1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1234" r:id="rId50" name="Gainphase_2">
-          <controlPr autoLine="0" r:id="rId51">
-            <anchor>
-              <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
@@ -10282,22 +15842,47 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1234" r:id="rId50" name="Gainphase_2"/>
+        <control shapeId="1243" r:id="rId48" name="Averaging_2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1235" r:id="rId52" name="Gainphase_3">
+        <control shapeId="1242" r:id="rId50" name="Averaging_1">
+          <controlPr autoLine="0" r:id="rId51">
+            <anchor>
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1242" r:id="rId50" name="Averaging_1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1241" r:id="rId52" name="Integration_Long">
           <controlPr autoLine="0" r:id="rId53">
             <anchor>
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
@@ -10307,24 +15892,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1235" r:id="rId52" name="Gainphase_3"/>
+        <control shapeId="1241" r:id="rId52" name="Integration_Long"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1236" r:id="rId54" name="Gainphase_4">
+        <control shapeId="1240" r:id="rId54" name="Integration_Medium">
           <controlPr autoLine="0" r:id="rId55">
             <anchor>
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
               </to>
             </anchor>
@@ -10332,24 +15917,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1236" r:id="rId54" name="Gainphase_4"/>
+        <control shapeId="1240" r:id="rId54" name="Integration_Medium"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1237" r:id="rId56" name="Gainphase_5">
+        <control shapeId="1239" r:id="rId56" name="Integration_Short">
           <controlPr autoLine="0" r:id="rId57">
             <anchor>
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
               </to>
             </anchor>
@@ -10357,7 +15942,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1237" r:id="rId56" name="Gainphase_5"/>
+        <control shapeId="1239" r:id="rId56" name="Integration_Short"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10387,19 +15972,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1239" r:id="rId60" name="Integration_Short">
+        <control shapeId="1237" r:id="rId60" name="Gainphase_5">
           <controlPr autoLine="0" r:id="rId61">
             <anchor>
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
               </to>
             </anchor>
@@ -10407,22 +15992,72 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1239" r:id="rId60" name="Integration_Short"/>
+        <control shapeId="1237" r:id="rId60" name="Gainphase_5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1240" r:id="rId62" name="Integration_Medium">
+        <control shapeId="1236" r:id="rId62" name="Gainphase_4">
           <controlPr autoLine="0" r:id="rId63">
             <anchor>
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1236" r:id="rId62" name="Gainphase_4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1235" r:id="rId64" name="Gainphase_3">
+          <controlPr autoLine="0" r:id="rId65">
+            <anchor>
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1235" r:id="rId64" name="Gainphase_3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1234" r:id="rId66" name="Gainphase_2">
+          <controlPr autoLine="0" r:id="rId67">
+            <anchor>
+              <from>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
@@ -10432,22 +16067,472 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1240" r:id="rId62" name="Integration_Medium"/>
+        <control shapeId="1234" r:id="rId66" name="Gainphase_2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1241" r:id="rId64" name="Integration_Long">
-          <controlPr autoLine="0" r:id="rId65">
+        <control shapeId="1228" r:id="rId68" name="Gainphase_1">
+          <controlPr autoLine="0" autoPict="0" r:id="rId69">
             <anchor>
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1228" r:id="rId68" name="Gainphase_1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1227" r:id="rId70" name="Impedans_20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId71">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1227" r:id="rId70" name="Impedans_20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1226" r:id="rId72" name="Impedans_19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId73">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1226" r:id="rId72" name="Impedans_19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1225" r:id="rId74" name="Impedans_18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId75">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1225" r:id="rId74" name="Impedans_18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1224" r:id="rId76" name="Impedans_17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId77">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1224" r:id="rId76" name="Impedans_17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1223" r:id="rId78" name="Impedans_16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId79">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1223" r:id="rId78" name="Impedans_16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1222" r:id="rId80" name="Impedans_15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId81">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1222" r:id="rId80" name="Impedans_15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1221" r:id="rId82" name="Impedans_14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId83">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1221" r:id="rId82" name="Impedans_14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1220" r:id="rId84" name="Impedans_13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId85">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1220" r:id="rId84" name="Impedans_13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1219" r:id="rId86" name="Impedans_12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId87">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1219" r:id="rId86" name="Impedans_12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1218" r:id="rId88" name="Impedans_11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId89">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1218" r:id="rId88" name="Impedans_11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1217" r:id="rId90" name="Impedans_10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId91">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1217" r:id="rId90" name="Impedans_10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1216" r:id="rId92" name="Impedans_9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId93">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1216" r:id="rId92" name="Impedans_9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1215" r:id="rId94" name="Impedans_8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId95">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1215" r:id="rId94" name="Impedans_8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1214" r:id="rId96" name="Impedans_7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId97">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1214" r:id="rId96" name="Impedans_7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1213" r:id="rId98" name="Impedans_6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId99">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1213" r:id="rId98" name="Impedans_6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1212" r:id="rId100" name="Impedans_5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId101">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1212" r:id="rId100" name="Impedans_5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1211" r:id="rId102" name="Impedans_4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId103">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1211" r:id="rId102" name="Impedans_4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1210" r:id="rId104" name="Impedans_3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId105">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
@@ -10457,23 +16542,48 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1241" r:id="rId64" name="Integration_Long"/>
+        <control shapeId="1210" r:id="rId104" name="Impedans_3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1242" r:id="rId66" name="Averaging_1">
-          <controlPr autoLine="0" r:id="rId67">
+        <control shapeId="1209" r:id="rId106" name="Impedans_2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId107">
             <anchor>
               <from>
-                <xdr:col>9</xdr:col>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1209" r:id="rId106" name="Impedans_2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1205" r:id="rId108" name="Impedans_1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId109">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
               </to>
@@ -10482,23 +16592,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1242" r:id="rId66" name="Averaging_1"/>
+        <control shapeId="1205" r:id="rId108" name="Impedans_1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1243" r:id="rId68" name="Averaging_2">
-          <controlPr autoLine="0" r:id="rId69">
+        <control shapeId="1190" r:id="rId110" name="Maaletype_Gph">
+          <controlPr autoLine="0" autoPict="0" r:id="rId111">
             <anchor>
               <from>
-                <xdr:col>9</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
               </to>
@@ -10507,173 +16617,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1243" r:id="rId68" name="Averaging_2"/>
+        <control shapeId="1190" r:id="rId110" name="Maaletype_Gph"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1245" r:id="rId70" name="Averaging_8">
-          <controlPr autoLine="0" r:id="rId71">
+        <control shapeId="1189" r:id="rId112" name="Maaletype_Imp">
+          <controlPr autoLine="0" autoPict="0" r:id="rId113">
             <anchor>
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1245" r:id="rId70" name="Averaging_8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1246" r:id="rId72" name="Averaging_16">
-          <controlPr autoLine="0" r:id="rId73">
-            <anchor>
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1246" r:id="rId72" name="Averaging_16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1247" r:id="rId74" name="Averaging_32">
-          <controlPr autoLine="0" r:id="rId75">
-            <anchor>
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1247" r:id="rId74" name="Averaging_32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1248" r:id="rId76" name="Averaging_64">
-          <controlPr autoLine="0" r:id="rId77">
-            <anchor>
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1248" r:id="rId76" name="Averaging_64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1249" r:id="rId78" name="Averaging_128">
-          <controlPr autoLine="0" r:id="rId79">
-            <anchor>
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>371475</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1249" r:id="rId78" name="Averaging_128"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1250" r:id="rId80" name="Averaging_256">
-          <controlPr autoLine="0" r:id="rId81">
-            <anchor>
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>371475</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1250" r:id="rId80" name="Averaging_256"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1251" r:id="rId82" name="SweepType_Log">
-          <controlPr autoLine="0" r:id="rId83">
-            <anchor>
-              <from>
-                <xdr:col>11</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>352425</xdr:rowOff>
               </to>
@@ -10682,382 +16642,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1251" r:id="rId82" name="SweepType_Log"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1252" r:id="rId84" name="SweepType_Lin">
-          <controlPr autoLine="0" r:id="rId85">
-            <anchor>
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1252" r:id="rId84" name="SweepType_Lin"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1244" r:id="rId86" name="Averaging_4">
-          <controlPr autoLine="0" r:id="rId87">
-            <anchor>
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1244" r:id="rId86" name="Averaging_4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1255" r:id="rId88" name="ForetagMaaling">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId89">
-            <anchor>
-              <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1255" r:id="rId88" name="ForetagMaaling"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1256" r:id="rId90" name="HentData">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId91">
-            <anchor>
-              <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>2143125</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1256" r:id="rId90" name="HentData"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1264" r:id="rId92" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId93">
-            <anchor>
-              <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>2143125</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1264" r:id="rId92" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1265" r:id="rId94" name="Output_1">
-          <controlPr autoLine="0" r:id="rId95">
-            <anchor>
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1265" r:id="rId94" name="Output_1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1268" r:id="rId96" name="ImpedanceReference_1">
-          <controlPr autoLine="0" autoPict="0" r:id="rId97">
-            <anchor>
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1268" r:id="rId96" name="ImpedanceReference_1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1269" r:id="rId98" name="ImpedanceReference_2">
-          <controlPr autoLine="0" autoPict="0" r:id="rId99">
-            <anchor>
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1269" r:id="rId98" name="ImpedanceReference_2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1270" r:id="rId100" name="ImpedanceTest_1">
-          <controlPr autoLine="0" autoPict="0" r:id="rId101">
-            <anchor>
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1270" r:id="rId100" name="ImpedanceTest_1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1271" r:id="rId102" name="ImpedanceTest_2">
-          <controlPr autoLine="0" autoPict="0" r:id="rId103">
-            <anchor>
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1271" r:id="rId102" name="ImpedanceTest_2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1272" r:id="rId104" name="Output_2">
-          <controlPr autoLine="0" r:id="rId105">
-            <anchor>
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1272" r:id="rId104" name="Output_2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1273" r:id="rId106" name="AttenuationReference_1">
-          <controlPr autoLine="0" r:id="rId107">
-            <anchor>
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1273" r:id="rId106" name="AttenuationReference_1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1274" r:id="rId108" name="AttenuationReference_2">
-          <controlPr autoLine="0" r:id="rId109">
-            <anchor>
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1274" r:id="rId108" name="AttenuationReference_2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1275" r:id="rId110" name="AttenuationTest_1">
-          <controlPr autoLine="0" autoPict="0" r:id="rId111">
-            <anchor>
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1275" r:id="rId110" name="AttenuationTest_1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1276" r:id="rId112" name="AttenuationTest_2">
-          <controlPr autoLine="0" autoPict="0" r:id="rId113">
-            <anchor>
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1276" r:id="rId112" name="AttenuationTest_2"/>
+        <control shapeId="1189" r:id="rId112" name="Maaletype_Imp"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11069,8 +16654,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M402"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -15607,6 +21192,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15615,7 +21201,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
